--- a/biology/Zoologie/Absalomichthys/Absalomichthys.xlsx
+++ b/biology/Zoologie/Absalomichthys/Absalomichthys.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Absalomichthys velifer
 Absalomichthys est un genre fossile des poissons de la famille des Caristiidae (ordre des Beryciformes) qui ont vécu au cours du Miocène. Une seule espèce est connue, Absalomichthys velifer. Ses restes fossiles ont été mis au jour en Californie du Sud.
@@ -512,10 +524,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Absalomichthys Whitley, 1933[1].
-Absalomichthys a pour synonymes[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Absalomichthys Whitley, 1933.
+Absalomichthys a pour synonymes :
 Abantis Jordan, 1925
 Absalomichthyes</t>
         </is>
